--- a/Test Cases/US-2.5_Accountant_Vendor management fuctionality_TCs.xlsx
+++ b/Test Cases/US-2.5_Accountant_Vendor management fuctionality_TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D0BEC5FD-1B06-4EED-8FDA-C60E29566923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838FF2A9-D340-457F-B9F9-6280AA910D7A}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{D0BEC5FD-1B06-4EED-8FDA-C60E29566923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFB9381-A5B8-4DC8-A474-D9A138EA37B6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
   <si>
     <t>Subject</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Validate the accountant dashboard.</t>
   </si>
   <si>
-    <t>Validate contact information field.</t>
-  </si>
-  <si>
     <t>Additional details will be displayed if required.</t>
-  </si>
-  <si>
-    <t>Validate other required field.</t>
   </si>
   <si>
     <t>Click on "add new customrts" option</t>
@@ -186,9 +180,6 @@
     <t>Validate the vendor list page.</t>
   </si>
   <si>
-    <t>Validate vendor name field .</t>
-  </si>
-  <si>
     <t>Sort and filter option should be there for vendor name/location</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>Click on "add new vendors enteries" option</t>
   </si>
   <si>
-    <t>Validate vendor name field.</t>
-  </si>
-  <si>
     <t>Adding new vendors should be displayed.</t>
   </si>
   <si>
@@ -275,6 +263,21 @@
   </si>
   <si>
     <t>US2.5_TC07_Error validation when adding new vendors when logged in as accountant</t>
+  </si>
+  <si>
+    <t>Validate vendor ID field .</t>
+  </si>
+  <si>
+    <t>Validate contactID field.</t>
+  </si>
+  <si>
+    <t>Validate vendor name field</t>
+  </si>
+  <si>
+    <t>Validate company name field</t>
+  </si>
+  <si>
+    <t>Step 11</t>
   </si>
 </sst>
 </file>
@@ -665,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,13 +708,13 @@
     </row>
     <row r="2" spans="1:6" ht="237.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -773,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -795,13 +798,13 @@
     </row>
     <row r="8" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -863,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -891,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>23</v>
@@ -905,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>23</v>
@@ -919,44 +922,44 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -964,13 +967,13 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -978,13 +981,13 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -992,75 +995,75 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1068,13 +1071,13 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1082,13 +1085,13 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1096,13 +1099,13 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1110,47 +1113,47 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    <row r="31" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1158,13 +1161,13 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1172,13 +1175,13 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1186,13 +1189,13 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1200,13 +1203,13 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1214,13 +1217,13 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1228,10 +1231,10 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>23</v>
@@ -1242,33 +1245,27 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>16</v>
+      <c r="F39" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1276,27 +1273,33 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1304,13 +1307,13 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1318,13 +1321,13 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1332,75 +1335,75 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1408,13 +1411,13 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1422,41 +1425,41 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1464,12 +1467,54 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>26</v>
       </c>
     </row>
